--- a/public/plantilla/plantilla.xlsx
+++ b/public/plantilla/plantilla.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\aesca\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\formulario21\public\plantilla\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23D5DF98-5B50-4BDD-ADD4-75862585EEA9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92B8CE1C-E731-4C76-8D3C-3268C13C78BC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7AE1F5A1-F772-46D5-9005-ABA6FCF050F4}"/>
   </bookViews>
   <sheets>
     <sheet name="hoja" sheetId="1" r:id="rId1"/>
+    <sheet name="tipo" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,30 +35,54 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>1-431</t>
-  </si>
-  <si>
-    <t>DIAZ PROAÑO, MARCO ANTONIO</t>
-  </si>
-  <si>
-    <t>DERECHO</t>
-  </si>
-  <si>
-    <t>libro_reg</t>
-  </si>
-  <si>
-    <t>apellidos_nombres</t>
-  </si>
-  <si>
-    <t>mencion</t>
-  </si>
-  <si>
-    <t>resolucion</t>
-  </si>
-  <si>
-    <t>tipo_diploma</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t>LOCADOR DE SERVICIOS</t>
+  </si>
+  <si>
+    <t>terceros</t>
+  </si>
+  <si>
+    <t>DOCENTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ASDE, ASTC, ASTP, AXDE, AXTC, AXTP, JPDE, JPTC, JPTP, PDE, PTC, PTP</t>
+  </si>
+  <si>
+    <t>CONTRATADO CAS</t>
+  </si>
+  <si>
+    <t>Personal CAS</t>
+  </si>
+  <si>
+    <t>ADMINISTRATIVO NOMBRADO</t>
+  </si>
+  <si>
+    <t>ADMINISTRATIVO CONTRATADO</t>
+  </si>
+  <si>
+    <t>Administrativo antiguo, pero no está nombrado</t>
+  </si>
+  <si>
+    <t>dni</t>
+  </si>
+  <si>
+    <t>nombres</t>
+  </si>
+  <si>
+    <t>apellido_paterno</t>
+  </si>
+  <si>
+    <t>apellido_materno</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>celular</t>
+  </si>
+  <si>
+    <t>tipo</t>
   </si>
 </sst>
 </file>
@@ -73,12 +98,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -93,8 +124,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -409,60 +444,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72D8D9FF-9EA0-49CD-A70A-D1571E4968FD}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" showWhiteSpace="0" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.42578125" customWidth="1"/>
-    <col min="2" max="2" width="37.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
     <col min="3" max="3" width="27.42578125" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" customWidth="1"/>
     <col min="5" max="5" width="12.7109375" customWidth="1"/>
-    <col min="6" max="6" width="6" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>7</v>
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <v>474</v>
-      </c>
-      <c r="E2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -471,4 +496,81 @@
 </oddHeader>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD87FF9A-6584-4567-B819-3C01377DCCF5}">
+  <sheetPr>
+    <tabColor theme="7"/>
+  </sheetPr>
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="34.140625" customWidth="1"/>
+    <col min="3" max="3" width="50.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>